--- a/biology/Zoologie/Ampelophaga_rubiginosa/Ampelophaga_rubiginosa.xlsx
+++ b/biology/Zoologie/Ampelophaga_rubiginosa/Ampelophaga_rubiginosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampelophaga rubiginosa est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini, et du genre Ampelophaga.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 72-100 mm.
 			Face dorsale du mâle MHNT
@@ -548,7 +562,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue du nord-est de l'Afghanistan à l'est autour de la marge sud de l'Himalaya au Yunnan, puis dans toute la Chine à l'Extrême-Est de la Russie, dans  la péninsule coréenne et au Japon, mais également au sud à travers la Thaïlande et le Vietnam, à Sumatra et à la Malaisie péninsulaire.</t>
@@ -579,7 +595,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a une génération par an dans le nord-est de la Chine, les adultes volent de juin à août. Plus au sud, il peut y avoir jusqu'à trois générations par an. À Shanghai, les adultes volent de février à octobre. En Corée, ils se trouvent à partir de début mai à début août.
 Les chenilles se nourrissent sur les Vitaceae (y compris Cayratia, Parthenocissus et Vitis), Hydrangea paniculata et Saurauia.
@@ -611,24 +629,94 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Ampelophaga rubiginosa a été décrite par les entomologistes Otto Vasilievich Bremer et William Grey en 1853[1].
-Synonymie
-Ampelophaga romanovi (Staudinger, 1887)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Ampelophaga rubiginosa a été décrite par les entomologistes Otto Vasilievich Bremer et William Grey en 1853.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ampelophaga_rubiginosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ampelophaga_rubiginosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ampelophaga romanovi (Staudinger, 1887)
 Deilephila romanovi Staudinger, 1887
 Ampelophaga fasciosa Moore, 1888
 Ampelophaga iyenobu Holland, 1889
-Ampelophaga khasiana malayana Rothschild &amp; Jordan, 1915[2]
+Ampelophaga khasiana malayana Rothschild &amp; Jordan, 1915
 Ampelophaga alticola Mell, 1922
 Ampelophaga hydrangeae Mell, 1922
 Ampelophaga marginalis Matsumura, 1927
-Ampelophaga submarginalis Matsumura, 1927
-Taxinomie
-Sous-espèces
+Ampelophaga submarginalis Matsumura, 1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ampelophaga_rubiginosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ampelophaga_rubiginosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sous-espèces
 Ampelophaga rubiginosa rubiginosa
 Ampelophaga rubiginosa Lohita Kishida &amp; Yano 2001 (Japon (Kyushu et l'archipel Ryukyu))
-Ampelophaga rubiginosa myosotis Kitching &amp; Cadiou 2000 (USA)[3].</t>
+Ampelophaga rubiginosa myosotis Kitching &amp; Cadiou 2000 (USA).</t>
         </is>
       </c>
     </row>
